--- a/output/quotes.xlsx
+++ b/output/quotes.xlsx
@@ -141,7 +141,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Micronesia', 'LOC'), ('Federated States', 'GPE'), ('David Panuelo', 'PERSON')]</t>
+          <t xml:space="preserve">[('David Panuelo', 'PERSON'), ('Micronesia', 'LOC'), ('Federated States', 'GPE')]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -277,7 +277,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Anna Powles', 'PERSON'), ('Pacific', 'ORG'), ('Massey University', 'ORG'), ('Pacific', 'LOC')]</t>
+          <t xml:space="preserve">[('Massey University', 'ORG'), ('Anna Powles', 'PERSON'), ('Pacific', 'ORG'), ('Pacific', 'LOC')]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('the Anti-Defamation League', 'ORG'), ('Jonathan Greenblatt', 'PERSON')]</t>
+          <t xml:space="preserve">[('Jonathan Greenblatt', 'PERSON'), ('the Anti-Defamation League', 'ORG')]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Capitol', 'ORG'), ('the Oval Office', 'FAC'), ('Capitol', 'FAC')]</t>
+          <t xml:space="preserve">[('the Oval Office', 'FAC'), ('Capitol', 'ORG'), ('Capitol', 'FAC')]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('the Anti-Defamation League', 'ORG'), ('Jonathan Greenblatt', 'PERSON')]</t>
+          <t xml:space="preserve">[('Jonathan Greenblatt', 'PERSON'), ('the Anti-Defamation League', 'ORG')]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Micronesia', 'LOC'), ('Federated States', 'GPE'), ('David Panuelo', 'PERSON')]</t>
+          <t xml:space="preserve">[('David Panuelo', 'PERSON'), ('Micronesia', 'LOC'), ('Federated States', 'GPE')]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Anna Powles', 'PERSON'), ('Pacific', 'ORG'), ('Massey University', 'ORG'), ('Pacific', 'LOC')]</t>
+          <t xml:space="preserve">[('Massey University', 'ORG'), ('Anna Powles', 'PERSON'), ('Pacific', 'ORG'), ('Pacific', 'LOC')]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Trump', 'PERSON'), ('Trump', 'ORG'), ('D.C.', 'GPE'), ('Washington', 'GPE')]</t>
+          <t xml:space="preserve">[('Washington', 'GPE'), ('Trump', 'PERSON'), ('D.C.', 'GPE'), ('Trump', 'ORG')]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Jennifer Grygiel', 'PERSON'), ('Grygiel', 'PERSON'), ('Syracuse University', 'ORG')]</t>
+          <t xml:space="preserve">[('Syracuse University', 'ORG'), ('Grygiel', 'PERSON'), ('Jennifer Grygiel', 'PERSON')]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Rosen', 'ORG'), ('Guy Rosen', 'PERSON'), ('Facebook', 'ORG')]</t>
+          <t xml:space="preserve">[('Guy Rosen', 'PERSON'), ('Facebook', 'ORG'), ('Rosen', 'ORG')]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Capitol', 'ORG'), ('the United States', 'GPE'), ('Capitol', 'FAC')]</t>
+          <t xml:space="preserve">[('the United States', 'GPE'), ('Capitol', 'ORG'), ('Capitol', 'FAC')]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('the Anti-Defamation League', 'ORG'), ('Jonathan Greenblatt', 'PERSON')]</t>
+          <t xml:space="preserve">[('Jonathan Greenblatt', 'PERSON'), ('the Anti-Defamation League', 'ORG')]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Capitol', 'ORG'), ('the Oval Office', 'FAC'), ('Capitol', 'FAC')]</t>
+          <t xml:space="preserve">[('the Oval Office', 'FAC'), ('Capitol', 'ORG'), ('Capitol', 'FAC')]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('the Anti-Defamation League', 'ORG'), ('Jonathan Greenblatt', 'PERSON')]</t>
+          <t xml:space="preserve">[('Jonathan Greenblatt', 'PERSON'), ('the Anti-Defamation League', 'ORG')]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Trump', 'PERSON'), ('Trump', 'ORG'), ('D.C.', 'GPE'), ('Washington', 'GPE')]</t>
+          <t xml:space="preserve">[('Washington', 'GPE'), ('Trump', 'PERSON'), ('D.C.', 'GPE'), ('Trump', 'ORG')]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Jennifer Grygiel', 'PERSON'), ('Grygiel', 'PERSON'), ('Syracuse University', 'ORG')]</t>
+          <t xml:space="preserve">[('Syracuse University', 'ORG'), ('Grygiel', 'PERSON'), ('Jennifer Grygiel', 'PERSON')]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Rosen', 'ORG'), ('Guy Rosen', 'PERSON'), ('Facebook', 'ORG')]</t>
+          <t xml:space="preserve">[('Guy Rosen', 'PERSON'), ('Facebook', 'ORG'), ('Rosen', 'ORG')]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Capitol', 'ORG'), ('the United States', 'GPE'), ('Capitol', 'FAC')]</t>
+          <t xml:space="preserve">[('the United States', 'GPE'), ('Capitol', 'ORG'), ('Capitol', 'FAC')]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Trump', 'PERSON'), ('Trump', 'ORG'), ('D.C.', 'GPE'), ('Washington', 'GPE')]</t>
+          <t xml:space="preserve">[('Washington', 'GPE'), ('Trump', 'PERSON'), ('D.C.', 'GPE'), ('Trump', 'ORG')]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Jennifer Grygiel', 'PERSON'), ('Grygiel', 'PERSON'), ('Syracuse University', 'ORG')]</t>
+          <t xml:space="preserve">[('Syracuse University', 'ORG'), ('Grygiel', 'PERSON'), ('Jennifer Grygiel', 'PERSON')]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Rosen', 'ORG'), ('Guy Rosen', 'PERSON'), ('Facebook', 'ORG')]</t>
+          <t xml:space="preserve">[('Guy Rosen', 'PERSON'), ('Facebook', 'ORG'), ('Rosen', 'ORG')]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Capitol', 'ORG'), ('the United States', 'GPE'), ('Capitol', 'FAC')]</t>
+          <t xml:space="preserve">[('the United States', 'GPE'), ('Capitol', 'ORG'), ('Capitol', 'FAC')]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Micronesia', 'LOC'), ('Federated States', 'GPE'), ('David Panuelo', 'PERSON')]</t>
+          <t xml:space="preserve">[('David Panuelo', 'PERSON'), ('Micronesia', 'LOC'), ('Federated States', 'GPE')]</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Anna Powles', 'PERSON'), ('Pacific', 'ORG'), ('Massey University', 'ORG'), ('Pacific', 'LOC')]</t>
+          <t xml:space="preserve">[('Massey University', 'ORG'), ('Anna Powles', 'PERSON'), ('Pacific', 'ORG'), ('Pacific', 'LOC')]</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('the Anti-Defamation League', 'ORG'), ('Jonathan Greenblatt', 'PERSON')]</t>
+          <t xml:space="preserve">[('Jonathan Greenblatt', 'PERSON'), ('the Anti-Defamation League', 'ORG')]</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Capitol', 'ORG'), ('the Oval Office', 'FAC'), ('Capitol', 'FAC')]</t>
+          <t xml:space="preserve">[('the Oval Office', 'FAC'), ('Capitol', 'ORG'), ('Capitol', 'FAC')]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('the Anti-Defamation League', 'ORG'), ('Jonathan Greenblatt', 'PERSON')]</t>
+          <t xml:space="preserve">[('Jonathan Greenblatt', 'PERSON'), ('the Anti-Defamation League', 'ORG')]</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Trump', 'PERSON'), ('Trump', 'ORG'), ('D.C.', 'GPE'), ('Washington', 'GPE')]</t>
+          <t xml:space="preserve">[('Washington', 'GPE'), ('Trump', 'PERSON'), ('D.C.', 'GPE'), ('Trump', 'ORG')]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Jennifer Grygiel', 'PERSON'), ('Grygiel', 'PERSON'), ('Syracuse University', 'ORG')]</t>
+          <t xml:space="preserve">[('Syracuse University', 'ORG'), ('Grygiel', 'PERSON'), ('Jennifer Grygiel', 'PERSON')]</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Rosen', 'ORG'), ('Guy Rosen', 'PERSON'), ('Facebook', 'ORG')]</t>
+          <t xml:space="preserve">[('Guy Rosen', 'PERSON'), ('Facebook', 'ORG'), ('Rosen', 'ORG')]</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">[('Capitol', 'ORG'), ('the United States', 'GPE'), ('Capitol', 'FAC')]</t>
+          <t xml:space="preserve">[('the United States', 'GPE'), ('Capitol', 'ORG'), ('Capitol', 'FAC')]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
